--- a/biology/Zoologie/Eromangasaurus/Eromangasaurus.xlsx
+++ b/biology/Zoologie/Eromangasaurus/Eromangasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eromangasaurus est un genre fossile de plésiosaures de la famille des Elasmosauridae ayant vécu durant l'étage Albien du Crétacé inférieur dans ce qui est aujourd'hui l'Australie. 
 </t>
@@ -511,12 +523,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database                   (23 mai 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database                   (23 mai 2024) :
 † Eromangasaurus australis (Sachs, 2005)
 † Eromangasaurus carinognathus Kear, 2005 - espèce type
-Eromangasaurus australis a été décrite en 2005 à partir de fossiles découverts dans la formation de Toolebuc (en), dans l’État du Queensland[2].
+Eromangasaurus australis a été décrite en 2005 à partir de fossiles découverts dans la formation de Toolebuc (en), dans l’État du Queensland.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Eromangasaurus Kear (d), 2005[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Eromangasaurus Kear (d), 2005.
 </t>
         </is>
       </c>
